--- a/form/Plan test/Plan test.xlsx
+++ b/form/Plan test/Plan test.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppServ\www\erp_mvc\form\Plan test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BD41AF-EEBF-4BC0-811B-30E84D2A8C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5282DA2-B36F-47E6-89AF-0C06068D407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{28DDAE22-3664-4DC5-B768-44C786F6C706}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{28DDAE22-3664-4DC5-B768-44C786F6C706}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arno" sheetId="3" r:id="rId1"/>
-    <sheet name="Partner Chips" sheetId="2" r:id="rId2"/>
+    <sheet name="Arno 08-18" sheetId="4" r:id="rId1"/>
+    <sheet name="Arno 09-18" sheetId="3" r:id="rId2"/>
+    <sheet name="Partner Chips 08-18" sheetId="2" r:id="rId3"/>
+    <sheet name="Partner Chips 09-18" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -95,7 +97,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A48084-7931-4511-9011-C4CAEC4D3E8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB53EA2-03E4-44F5-A91D-3E42AE99997D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -161,7 +163,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8718D38-24FC-49E8-95AE-4B1285EE6FEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806906F1-5B9A-4213-AE59-E2692A7C35B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -222,7 +224,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF30897-3715-4EEA-B9A6-7A4469EB0134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8236BBF1-EEB1-4822-8222-6DF39A36C8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +293,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A7A464-B053-45E3-99C7-446813FBB1BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{109D57D0-8437-4481-81F2-9BFFDAA0C5A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -357,7 +359,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ACA8E8D-CB8C-4C12-A0E6-97F8D70DDFBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D96B897-1421-4733-8121-962728F56051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -461,7 +463,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EDF813-868A-4469-BA01-3766AB3FBCBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11ABA69B-A99D-43C7-A8D7-E8C37C79BE32}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -553,7 +555,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B6EC34-88D2-4059-8442-3918230E5889}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C492563A-8055-4DBE-8B96-56C2433F9F6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +611,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0C4FF8-AA81-482C-8BD2-D977BF6F5E9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7FF900-6F85-4E8E-873F-B4B16F38EB33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,7 +675,7 @@
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A0BA1E-89B4-4D55-87D6-30174F57D4A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9715D2-5F09-4069-BE57-01966024ABD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -692,7 +694,7 @@
           <xdr:cNvPr id="11" name="Rectangle 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AFAAD3-40CE-43AE-BB3B-7205EC55E257}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2634099B-3EA9-4D7E-A187-A0EE40705DF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -758,7 +760,7 @@
           <xdr:cNvPr id="12" name="Rectangle 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A018374-D9CC-4F67-BCC8-B5A4EE6897D5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96E24A97-7E40-42EA-B820-AF657F9905E4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -824,7 +826,7 @@
           <xdr:cNvPr id="13" name="Rectangle 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B80C9F-8F0B-43FF-9F5C-F8C94127CE4A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC3F57F-C2BA-4217-AABB-A97B96199552}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -890,7 +892,7 @@
           <xdr:cNvPr id="14" name="Rectangle 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE3CE8B-F72F-487B-AA02-597C5E905FD6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E339B7E-A571-4503-812D-422AB7E07D0A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -956,7 +958,7 @@
           <xdr:cNvPr id="15" name="Rectangle 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499B9A82-3775-4654-95CB-85C5424FDE32}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEDDC38-C36A-45AF-88AD-B1502964F73F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1002,7 +1004,7 @@
           <xdr:cNvPr id="16" name="TextBox 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8262E7E9-8425-4113-8176-3FB7F457E76B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222BF7CD-6BE2-4978-A936-3F76BDBD8222}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1067,7 +1069,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F317EDC-9E7D-437F-A931-8D8D15CA7837}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C846E2C-6FF5-4C36-849A-22C96169B584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1227,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A722CE-E388-4E75-8BF7-80E5B7DDD452}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC3C9F48-A141-43CB-8404-5570009DC0C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1242,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1386,7 +1388,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D267F096-AD41-48F1-8A77-3066BB31FFBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD4208A-9C3B-4E6B-8A9D-DC231A1388AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1403,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1489,7 +1491,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9ACEC25-8E2A-46D9-B627-361DDEB1C7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C4C272-C947-4C90-A400-D6B596FE1CAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1506,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1573,40 +1575,175 @@
             <a:t>สั่งซื้อ</a:t>
           </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF928A6-78EC-4C85-B930-DA8C53DA5900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906856" y="6649925"/>
+          <a:ext cx="1819274" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(10 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ใบ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับสินค้าเข้า</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดเอกสาร </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RR/RF)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558310</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>548785</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860E256D-76E9-4108-8BE8-2E45A0BD478B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10921510" y="1721827"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -1623,23 +1760,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543656</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>534130</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163401</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1464</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>139217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AC01A5-DFCC-40E5-9DE2-0726FE099ECB}"/>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DE9A37-E666-4F16-BDEB-7975C08EAD75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,14 +1784,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10906856" y="6649925"/>
-          <a:ext cx="1819274" cy="752476"/>
+          <a:off x="4878264" y="2053741"/>
+          <a:ext cx="1817810" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1687,7 +1824,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>รับสินค้าเข้า</a:t>
+            <a:t>รับชำระเงิน</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1701,91 +1838,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>เปิดเอกสาร </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(RR/RF)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>558310</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>548785</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>188303</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D4BB44-6A34-4EB1-83AE-E9AB93108926}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10921510" y="1721827"/>
-          <a:ext cx="1819275" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
+            <a:t>ที่เกี่ยวข้องกับเดือน 7</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -1796,6 +1849,20 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RE)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1803,22 +1870,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1464</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>148741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>139217</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76428BE-6B0D-4BEA-B70B-ABB2FE49B0B0}"/>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC666BF-BC6A-4D27-8CC2-03C81C0E0835}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,8 +1893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4878264" y="2053741"/>
-          <a:ext cx="1817810" cy="752476"/>
+          <a:off x="4886324" y="3006241"/>
+          <a:ext cx="1820740" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,7 +1933,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>รับชำระเงิน</a:t>
+            <a:t>จ่ายชำระเงิน</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1902,115 +1969,6 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>(RE)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1464</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139217</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A22873-A1CC-4929-A751-4B8BE3DF56EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4886324" y="3006241"/>
-          <a:ext cx="1820740" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>จ่ายชำระเงิน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ที่เกี่ยวข้องกับเดือน 7</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
             <a:t>(PS)</a:t>
           </a:r>
         </a:p>
@@ -2036,7 +1994,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0218D46A-83DD-4428-9C67-4911CFE968BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A506A7D-6ADF-4A94-BAF1-691F52B22000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2133,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657AB652-0A6A-4C64-9AA0-05A730F2B50F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1A7C31-6EDE-485C-9887-48AB1590F01B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2148,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2266,7 +2224,7 @@
         <xdr:cNvPr id="27" name="Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5D912-8C4A-4ABA-B64A-39EA8F116AF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D38D5F6-A14A-4747-AFF2-0C8172376A6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2239,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -2357,7 +2315,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3240E3-590A-4C7A-A37B-93A3A04B4DD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAC35B0-B34B-4C1F-8D92-44D02295AE07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2330,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2452,7 +2410,7 @@
         <xdr:cNvPr id="29" name="Oval 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F8D56-E7C4-4472-8694-2ED3C1A2D1F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B1B61B6-721C-4B04-9853-5815D279FD62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2476,7 @@
         <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C171D-528A-4D95-A383-14E7EC0CB032}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5616567-BF6E-45EA-A2EB-17394BB2798C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2533,7 @@
         <xdr:cNvPr id="31" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB10FAA-2FDF-4B51-A678-17959F6E48C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1FC779-B9D8-4019-9E21-AE96E6EE2DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2632,7 +2590,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF002B0D-A372-4463-9FBF-F951E4716429}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C79BFFA-B3BE-49EE-B10B-DA31A0F2331C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2689,7 +2647,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D893AFA-5AB2-4FAC-981D-F8F174A6A2C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A9A02E-F643-43EB-BD0C-D3D36355532A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2704,7 @@
         <xdr:cNvPr id="34" name="Oval 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8C2570-408C-4B31-ABC4-05F3C3C75E10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAA6247-8C7E-4A0D-BB7E-AE7A6155A06A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2770,7 @@
         <xdr:cNvPr id="35" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BF5433-01C5-4BB2-B91E-85AE25E514EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC6D8B7-DFA8-49A5-8E62-A0079CB98743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2827,7 @@
         <xdr:cNvPr id="36" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9CBE4A-1BA0-4AE4-8FB7-0644A6092A59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD4126F-F05D-42C2-B447-B26529093F3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2884,7 @@
         <xdr:cNvPr id="37" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B571AE6A-6B71-48F4-92FD-BDBE6D525290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BFE9C9-3468-4BFB-8489-DC42939F3F17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2941,7 @@
         <xdr:cNvPr id="38" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA190C-C577-4CEC-88D5-E8CF7DE1089E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F141AE-05C6-4E6F-B77F-B08EBA89C6FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +2998,7 @@
         <xdr:cNvPr id="39" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962EFC00-DDBD-4696-A66C-1E9C6C199B01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B0331A-7A36-4332-AB37-7339AF5ED5C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3055,7 @@
         <xdr:cNvPr id="40" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA589630-534C-4B0F-B616-21655C6CAA84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67AD7743-362F-47AF-8F4D-290535539471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3112,7 @@
         <xdr:cNvPr id="41" name="Rectangle 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05726F08-3693-46B0-BC28-571399E594B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010AFE13-0B9B-47FC-902A-B707CB9AFFB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3282,7 +3240,7 @@
         <xdr:cNvPr id="42" name="Oval 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087C4C79-CB73-41E1-9F55-6A74353FC4B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1BED35-2FB3-4EE8-86BC-D2488C99AB16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3348,7 +3306,7 @@
         <xdr:cNvPr id="43" name="Straight Arrow Connector 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52344302-1B6B-4DDB-8C2E-C6CC2C95520C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BFF64F-B43C-4E17-9D7E-C5FC250F9E74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3365,7 @@
         <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A24819-6183-48DE-A173-70EF711C14E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7566C58-0EB8-415A-AEE2-D04D6D2E6AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3422,7 @@
         <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6901EB25-4B3F-4CEB-86D3-B4A40549A4B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{004D54BB-8956-4734-AB08-3ED1DC8DB72B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3521,7 +3479,7 @@
         <xdr:cNvPr id="46" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC133C2-686B-4F40-B467-5305E25D0A63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B4AD1C-298A-4BC5-AF32-33CE93C8B49F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +3536,7 @@
         <xdr:cNvPr id="47" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED3E935-5A70-441C-99BF-3FCECBC93218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F918E7A9-939F-4B5A-9A62-2E19866B1540}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3635,7 +3593,7 @@
         <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E74D800-B954-436F-8106-50EF1E94CE0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235FA8D6-1851-4FE7-AEC5-1F21C7A19833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3650,7 @@
         <xdr:cNvPr id="49" name="Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D795FF6-2DBB-471A-B8CA-42B079558C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962B563D-EF35-48B2-81A7-54A358AB3BF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3707,7 +3665,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3773,7 +3731,7 @@
         <xdr:cNvPr id="50" name="Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566642F7-C985-4729-977A-6210A2773068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98732EC0-1C8F-4EF2-8100-981AE015DC9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3746,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -3854,7 +3812,7 @@
         <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F845C19-18E6-47FD-AEF2-F6C85C127D42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3E9CF3B-84EE-46E1-A17B-C654C2006051}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3869,7 @@
         <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FBCA72-6A6E-4424-B714-89D77FF244CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15210863-64FD-4938-901E-549A05E05F0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +3926,7 @@
         <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DEDF5F-7488-465F-ACBC-52E5907CE6B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCAC3D8-2843-458A-B98A-346584EF968A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,7 +3983,7 @@
         <xdr:cNvPr id="54" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF385003-DC33-4213-8499-6D16EC3B4E30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4645713-624A-452C-83DF-330F2229E767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4084,7 +4042,7 @@
         <xdr:cNvPr id="55" name="Rectangle 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCD2104-B3A0-41F2-B811-6052E4B7B551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBAEF52-8058-451A-B4A3-F3BECF490DB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4099,7 +4057,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4198,7 +4156,7 @@
         <xdr:cNvPr id="56" name="Rectangle 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AE66F5-85AA-4F22-9B49-4B2CDD0951D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAB1BD9-8AE6-4DDC-978D-593CE7A7552E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4213,7 +4171,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -4312,7 +4270,7 @@
         <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09063362-D720-4F99-A293-62F53C1CA94F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC5B778-922F-4053-BB62-FDAB6D4694BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4369,7 +4327,7 @@
         <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A9DC1B-53A6-407A-AC56-F8AF2B955575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B10B67F-895C-4F3B-BB72-FEE9085D7DB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4426,7 +4384,7 @@
         <xdr:cNvPr id="59" name="Rectangle 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791CB803-BD72-4F2B-BC2C-2349DEA624C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304F297F-7918-474F-82EB-0A31F008FDF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4554,7 +4512,7 @@
         <xdr:cNvPr id="60" name="TextBox 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD8AFB4-4DBC-4A09-81E7-A4510BC9ECA8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FD6A55-0A38-4762-80CB-7E5019C6587D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4619,7 +4577,7 @@
         <xdr:cNvPr id="61" name="Rectangle 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC857161-A035-4AC5-9791-685FF1CA4B39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDBC11CE-2EA2-41DC-82D5-B8A8750EC51B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4729,7 +4687,7 @@
         <xdr:cNvPr id="62" name="Straight Arrow Connector 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA04F02-AE84-4A90-8AB8-C1EC2C9CA140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A71CFA-9FCF-450B-9431-BF5E251DCC10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4781,7 +4739,7 @@
         <xdr:cNvPr id="63" name="TextBox 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F15F41-3934-4E80-863A-31CB58B9F57A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22819A14-AD93-40E5-91F7-F2C067BDF582}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +4747,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9691687" y="333239"/>
+          <a:off x="9727406" y="333239"/>
           <a:ext cx="2190750" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4831,6 +4789,2974 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87006</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A48084-7931-4511-9011-C4CAEC4D3E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696606" y="313224"/>
+          <a:ext cx="20625106" cy="9414181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153867</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14656</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8718D38-24FC-49E8-95AE-4B1285EE6FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1373067" y="4615960"/>
+          <a:ext cx="19367989" cy="4689231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758460" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF30897-3715-4EEA-B9A6-7A4469EB0134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640400" y="4838380"/>
+          <a:ext cx="1758460" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> admin</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A7A464-B053-45E3-99C7-446813FBB1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365738" y="813288"/>
+          <a:ext cx="19367989" cy="3421674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F317EDC-9E7D-437F-A931-8D8D15CA7837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095874" y="5677642"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลูกค้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A722CE-E388-4E75-8BF7-80E5B7DDD452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105399" y="6649192"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอเทส</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>แยกตามประเภท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (TR)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D267F096-AD41-48F1-8A77-3066BB31FFBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086349" y="7601692"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (PR)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9ACEC25-8E2A-46D9-B627-361DDEB1C7D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540993" y="6646994"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สั่งซื้อ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43AC01A5-DFCC-40E5-9DE2-0726FE099ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906856" y="6649925"/>
+          <a:ext cx="1819274" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับสินค้าเข้า</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดเอกสาร </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RR/RF)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546404</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536879</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D4BB44-6A34-4EB1-83AE-E9AB93108926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10869123" y="5234171"/>
+          <a:ext cx="1812131" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8791</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{657AB652-0A6A-4C64-9AA0-05A730F2B50F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15866451" y="1153258"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11722</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2197</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5D912-8C4A-4ABA-B64A-39EA8F116AF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15861322" y="2288931"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>603004</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3240E3-590A-4C7A-A37B-93A3A04B4DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13415595" y="6642598"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดใบกำกับภาษี</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(INV)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F8D56-E7C4-4472-8694-2ED3C1A2D1F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="6889515"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C171D-528A-4D95-A383-14E7EC0CB032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="7025429"/>
+          <a:ext cx="485775" cy="2199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB10FAA-2FDF-4B51-A678-17959F6E48C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4466127" y="6259767"/>
+          <a:ext cx="835635" cy="423861"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF002B0D-A372-4463-9FBF-F951E4716429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="6"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="7025430"/>
+          <a:ext cx="304799" cy="2198"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D893AFA-5AB2-4FAC-981D-F8F174A6A2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="4"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4473085" y="7364667"/>
+          <a:ext cx="812190" cy="414336"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8C2570-408C-4B31-ABC4-05F3C3C75E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7575306" y="6888050"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BF5433-01C5-4BB2-B91E-85AE25E514EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915149" y="6053880"/>
+          <a:ext cx="788745" cy="834170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9CBE4A-1BA0-4AE4-8FB7-0644A6092A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="34" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6905624" y="7164275"/>
+          <a:ext cx="798270" cy="813655"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B571AE6A-6B71-48F4-92FD-BDBE6D525290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924674" y="7025430"/>
+          <a:ext cx="650632" cy="733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA190C-C577-4CEC-88D5-E8CF7DE1089E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="6"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7832481" y="7023232"/>
+          <a:ext cx="708512" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962EFC00-DDBD-4696-A66C-1E9C6C199B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358802" y="7023232"/>
+          <a:ext cx="548054" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA589630-534C-4B0F-B616-21655C6CAA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12726130" y="7018836"/>
+          <a:ext cx="689465" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235284</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238033</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E74D800-B954-436F-8106-50EF1E94CE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11772440" y="5986647"/>
+          <a:ext cx="2749" cy="663278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D795FF6-2DBB-471A-B8CA-42B079558C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13418525" y="2299189"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบวางบิล</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566642F7-C985-4729-977A-6210A2773068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13424386" y="1162051"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบเสร็จ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>303700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F845C19-18E6-47FD-AEF2-F6C85C127D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="49" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14324500" y="3051665"/>
+          <a:ext cx="2930" cy="3590933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312491</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FBCA72-6A6E-4424-B714-89D77FF244CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14327430" y="1914527"/>
+          <a:ext cx="5861" cy="384662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DEDF5F-7488-465F-ACBC-52E5907CE6B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15243661" y="1529496"/>
+          <a:ext cx="622790" cy="8793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>234825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311027</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF385003-DC33-4213-8499-6D16EC3B4E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12113229" y="2745403"/>
+          <a:ext cx="4360994" cy="4953002"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5242"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15386</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCD2104-B3A0-41F2-B811-6052E4B7B551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18303386" y="1143733"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันรับเงิน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AE66F5-85AA-4F22-9B49-4B2CDD0951D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18301920" y="2285267"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันจ่ายเงิน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8791</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15386</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09063362-D720-4F99-A293-62F53C1CA94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17687191" y="1519971"/>
+          <a:ext cx="616195" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2197</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188669</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57A9DC1B-53A6-407A-AC56-F8AF2B955575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17680597" y="2661505"/>
+          <a:ext cx="621323" cy="3664"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13921</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791CB803-BD72-4F2B-BC2C-2349DEA624C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18301921" y="3252421"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ออกรายงาน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1078913" cy="352725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD8AFB4-4DBC-4A09-81E7-A4510BC9ECA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9899743" y="1023801"/>
+          <a:ext cx="1078913" cy="352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1600" b="1"/>
+            <a:t>บัญชี</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142739</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2190750" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F15F41-3934-4E80-863A-31CB58B9F57A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9691687" y="333239"/>
+          <a:ext cx="2190750" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Arno 09/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159223</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758460" cy="352725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B950DEBA-3A03-408E-8C81-E13A782AFFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2318057" y="6826723"/>
+          <a:ext cx="1758460" cy="352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1600" b="1"/>
+            <a:t>08/2018</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5838,7 +8764,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -5907,9 +8833,104 @@
             <a:t>ลูกค้า</a:t>
           </a:r>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ACD3DA-832C-4E04-A931-5E8B7A3B396E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886199" y="6268192"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอเทส</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>แยกตามประเภท</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -5918,29 +8939,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>(2 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ใบ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t> (TR)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -5958,22 +8957,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>172192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>162668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0ACD3DA-832C-4E04-A931-5E8B7A3B396E}"/>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FC35BE-56BD-4B3D-B0F9-D2F93785BFD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5981,14 +8980,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886199" y="6268192"/>
+          <a:off x="3867149" y="7220692"/>
           <a:ext cx="1819275" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6032,21 +9031,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ใบขอเทส</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>แยกตามประเภท</a:t>
+            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
@@ -6057,7 +9042,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t> (TR)</a:t>
+            <a:t> (PR)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -6074,23 +9059,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>172192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>162668</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FC35BE-56BD-4B3D-B0F9-D2F93785BFD4}"/>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F98ED3-AC09-458A-8BFA-5C51050C28D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6098,14 +9083,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3867149" y="7220692"/>
-          <a:ext cx="1819275" cy="752476"/>
+          <a:off x="7321793" y="6265994"/>
+          <a:ext cx="1817809" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6138,7 +9123,29 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>นำเข้าข้อมูล</a:t>
+            <a:t>เปิด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
@@ -6149,18 +9156,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> (PR)</a:t>
+            <a:t>สั่งซื้อ</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -6177,23 +9173,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6593</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>169994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>605202</xdr:colOff>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>160470</xdr:rowOff>
+      <xdr:rowOff>163401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F98ED3-AC09-458A-8BFA-5C51050C28D1}"/>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B1AA96-BB58-47E4-A515-D09C6A36FF3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6201,14 +9197,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7321793" y="6265994"/>
-          <a:ext cx="1817809" cy="752476"/>
+          <a:off x="9687656" y="6268925"/>
+          <a:ext cx="1819274" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6241,120 +9237,6 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>เปิด </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สั่งซื้อ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543656</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>534130</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B1AA96-BB58-47E4-A515-D09C6A36FF3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9687656" y="6268925"/>
-          <a:ext cx="1819274" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
             <a:t>รับสินค้าเข้า</a:t>
           </a:r>
         </a:p>
@@ -6420,7 +9302,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6858,7 +9740,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -6949,7 +9831,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -7040,7 +9922,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8373,7 +11255,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8454,7 +11336,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8765,7 +11647,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8879,7 +11761,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -9516,6 +12398,2973 @@
             <a:rPr lang="en-US" sz="1600" b="1"/>
             <a:t>Partner Chips  08/2018</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87006</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FE4BC1-1074-44A9-A319-30D332BEA103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696606" y="313224"/>
+          <a:ext cx="20625106" cy="9414181"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153867</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14656</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA2A3EA-D2C4-4124-8093-021F4EAC6D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1373067" y="4615960"/>
+          <a:ext cx="19367989" cy="4689231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758460" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A554B-E5EE-4A6B-859B-FBC0A0961DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640400" y="4838380"/>
+          <a:ext cx="1758460" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> admin</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A66FDC-CC07-4D00-8314-A8364B5CC258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365738" y="813288"/>
+          <a:ext cx="19367989" cy="3421674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B051F6-0F5E-4CD4-902D-C7CD86EA47C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095874" y="5677642"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลูกค้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCD5ED-9A64-4E31-9ED4-02AA56411693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105399" y="6649192"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอเทส</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>แยกตามประเภท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (TR)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03488B-C599-48E5-980C-185248A376A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086349" y="7601692"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (PR)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57B0571-9730-4218-BB8F-939358DCEFF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8540993" y="6646994"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สั่งซื้อ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1F1BF0-3797-4220-B0B9-5CE1F92CD22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906856" y="6649925"/>
+          <a:ext cx="1819274" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับสินค้าเข้า</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดเอกสาร </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RR/RF)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546404</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536879</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ABC39C-B5C0-4F61-924C-C3BBDA45F851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10909604" y="5234171"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8791</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D243BA-ECB0-4F20-8611-4D6ADA76D319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15866451" y="1153258"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11722</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2197</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1856624-98E7-44C6-8033-7269D33E92BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15861322" y="2288931"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>603004</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8B7C60-8D7A-404A-ACE2-23C5FDAA1189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13415595" y="6642598"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดใบกำกับภาษี</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(INV)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C018758-E0A4-4529-8D01-0CEBA13F05E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="6889515"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E929DBA-88C8-4626-87B7-EB878B4744DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="7025429"/>
+          <a:ext cx="485775" cy="2199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4324EC4-4871-45B0-A8D3-55B39CBF61C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4466127" y="6259767"/>
+          <a:ext cx="835635" cy="423861"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF08F067-8E54-4C0C-9B72-FA0A39215F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="6"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="7025430"/>
+          <a:ext cx="304799" cy="2198"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0048E78-F3BB-47B0-8066-A48D53D32543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="4"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4473085" y="7364667"/>
+          <a:ext cx="812190" cy="414336"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F91563D-F517-484A-BDFA-3317AA68F691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7575306" y="6888050"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E3C68-C9EF-4A3A-8639-209AA9CF4212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915149" y="6053880"/>
+          <a:ext cx="788745" cy="834170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD8A4A5-8E0D-45F4-A1C4-777ACF948CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="20" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6905624" y="7164275"/>
+          <a:ext cx="798270" cy="813655"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD8DD27-0C8B-437F-9439-68A12C5FAC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924674" y="7025430"/>
+          <a:ext cx="650632" cy="733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78BBE-1529-407E-AF5B-34F166C6739F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="6"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7832481" y="7023232"/>
+          <a:ext cx="708512" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E66FFC-E3DF-4556-9BE4-F02B8BE1EA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358802" y="7023232"/>
+          <a:ext cx="548054" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233229BF-5166-4E79-859C-8FD6A9A418BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12726130" y="7018836"/>
+          <a:ext cx="689465" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235284</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238033</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711C9E3-2978-4470-9244-1F5DB05664B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11817684" y="5986647"/>
+          <a:ext cx="2749" cy="663278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F569074-EF93-441F-9B39-72A3F34450A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13418525" y="2299189"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบวางบิล</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13186</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04305525-3BDA-4276-970A-BEF87E7356C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13424386" y="1162051"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบเสร็จ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>303700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BCB6A1-CD49-44A2-8572-72A5FB09F03A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14324500" y="3051665"/>
+          <a:ext cx="2930" cy="3590933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312491</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3933F4-EB56-4ACD-82A4-473B344278BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14327430" y="1914527"/>
+          <a:ext cx="5861" cy="384662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC19242-4E0D-4D7B-BF0E-8D9F4601E8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15243661" y="1529496"/>
+          <a:ext cx="622790" cy="8793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>234825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311027</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72DE8C-82AC-4A46-B5F5-688C0AA45A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12113229" y="2745403"/>
+          <a:ext cx="4360994" cy="4953002"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5242"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15386</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE44B3A0-7800-4561-940C-B9DF68740018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18303386" y="1143733"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันรับเงิน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E3BCFA-05B5-4B6B-8F4D-6110698BEB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18301920" y="2285267"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันจ่ายเงิน</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8791</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>186471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15386</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717B8BAF-07E9-4802-8A49-CE94C7147077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17687191" y="1519971"/>
+          <a:ext cx="616195" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2197</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188669</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5DE5DB-2425-4680-802C-A330B567E11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17680597" y="2661505"/>
+          <a:ext cx="621323" cy="3664"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13921</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4397</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B5DE04-FEFA-4285-BFEA-0AFED41A473C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18301921" y="3252421"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ออกรายงาน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1078913" cy="352725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1063C0-E73F-4135-BC5F-A8601CE917AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9899743" y="1023801"/>
+          <a:ext cx="1078913" cy="352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1600" b="1"/>
+            <a:t>บัญชี</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142739</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2190750" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAA8B0F-5D77-4978-A394-308652F62289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9727406" y="333239"/>
+          <a:ext cx="2190750" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Arno 09/2018</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>159223</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758460" cy="352725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33348FE-1740-4AD7-8699-DFFBF8C7CA81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2325201" y="6826723"/>
+          <a:ext cx="1758460" cy="352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1600" b="1"/>
+            <a:t>08/2018</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9820,10 +15669,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22623543-0CDF-4A60-ADC8-66FD6E47BC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DEE68E-A1E3-462D-BE19-9AE2D13AFFC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
@@ -9835,11 +15684,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22623543-0CDF-4A60-ADC8-66FD6E47BC31}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ30" sqref="AJ30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502C6A81-68D6-48A9-8DA0-0479F796D196}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B18B49-BE50-429E-9BAE-7FA41E00D1F4}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ17:AJ18"/>
+      <selection activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/form/Plan test/Plan test.xlsx
+++ b/form/Plan test/Plan test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AppServ\www\erp_mvc\form\Plan test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5282DA2-B36F-47E6-89AF-0C06068D407D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95447D88-0E6C-4EF2-8A6A-1974D64D2301}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{28DDAE22-3664-4DC5-B768-44C786F6C706}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{28DDAE22-3664-4DC5-B768-44C786F6C706}"/>
   </bookViews>
   <sheets>
     <sheet name="Arno 08-18" sheetId="4" r:id="rId1"/>
@@ -683,8 +683,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1566863" y="4925166"/>
-          <a:ext cx="2476500" cy="4200525"/>
+          <a:off x="1571625" y="4925166"/>
+          <a:ext cx="2486025" cy="4200525"/>
           <a:chOff x="352425" y="4163166"/>
           <a:chExt cx="2480163" cy="4200525"/>
         </a:xfrm>
@@ -4366,139 +4366,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13921</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4397</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Rectangle 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{304F297F-7918-474F-82EB-0A31F008FDF6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18301921" y="3252421"/>
-          <a:ext cx="1820740" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ออกรายงาน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -4785,6 +4652,109 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>37732</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>29672</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rectangle 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D0CCA5-33D7-41C4-BA95-37563AD11574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18254295" y="3213955"/>
+          <a:ext cx="1813596" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รายงานตรง </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>บัญชีงบทดลอง</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5704,7 +5674,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -5941,829 +5911,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>(INV)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>117240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Oval 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F8D56-E7C4-4472-8694-2ED3C1A2D1F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4543425" y="6889515"/>
-          <a:ext cx="257175" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169628</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C171D-528A-4D95-A383-14E7EC0CB032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4057650" y="7025429"/>
-          <a:ext cx="485775" cy="2199"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31515</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB10FAA-2FDF-4B51-A678-17959F6E48C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="0"/>
-          <a:endCxn id="17" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4466127" y="6259767"/>
-          <a:ext cx="835635" cy="423861"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169628</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF002B0D-A372-4463-9FBF-F951E4716429}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="6"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="7025430"/>
-          <a:ext cx="304799" cy="2198"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>117240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D893AFA-5AB2-4FAC-981D-F8F174A6A2C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="4"/>
-          <a:endCxn id="19" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4473085" y="7364667"/>
-          <a:ext cx="812190" cy="414336"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260106</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517281</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Oval 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8C2570-408C-4B31-ABC4-05F3C3C75E10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7575306" y="6888050"/>
-          <a:ext cx="257175" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388694</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BF5433-01C5-4BB2-B91E-85AE25E514EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="3"/>
-          <a:endCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915149" y="6053880"/>
-          <a:ext cx="788745" cy="834170"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388694</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9CBE4A-1BA0-4AE4-8FB7-0644A6092A59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="3"/>
-          <a:endCxn id="34" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6905624" y="7164275"/>
-          <a:ext cx="798270" cy="813655"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260106</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B571AE6A-6B71-48F4-92FD-BDBE6D525290}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="3"/>
-          <a:endCxn id="34" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6924674" y="7025430"/>
-          <a:ext cx="650632" cy="733"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517281</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6593</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA190C-C577-4CEC-88D5-E8CF7DE1089E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="6"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7832481" y="7023232"/>
-          <a:ext cx="708512" cy="2931"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>605202</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543656</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962EFC00-DDBD-4696-A66C-1E9C6C199B01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
-          <a:endCxn id="21" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10358802" y="7023232"/>
-          <a:ext cx="548054" cy="2931"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>534130</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>4395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA589630-534C-4B0F-B616-21655C6CAA84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="28" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12726130" y="7018836"/>
-          <a:ext cx="689465" cy="7327"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>235284</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238033</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E74D800-B954-436F-8106-50EF1E94CE0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="0"/>
-          <a:endCxn id="22" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11772440" y="5986647"/>
-          <a:ext cx="2749" cy="663278"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>605934</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D795FF6-2DBB-471A-B8CA-42B079558C05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13418525" y="2299189"/>
-          <a:ext cx="1817809" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:t>(INV) 78 </a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="th-TH" sz="1100" b="1">
               <a:solidFill>
@@ -6773,7 +5922,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>ออกใบวางบิล</a:t>
+            <a:t>ใบ</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -6790,6 +5939,838 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Oval 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065F8D56-E7C4-4472-8694-2ED3C1A2D1F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="6889515"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686C171D-528A-4D95-A383-14E7EC0CB032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="7025429"/>
+          <a:ext cx="485775" cy="2199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB10FAA-2FDF-4B51-A678-17959F6E48C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4466127" y="6259767"/>
+          <a:ext cx="835635" cy="423861"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF002B0D-A372-4463-9FBF-F951E4716429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="6"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="7025430"/>
+          <a:ext cx="304799" cy="2198"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D893AFA-5AB2-4FAC-981D-F8F174A6A2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="4"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4473085" y="7364667"/>
+          <a:ext cx="812190" cy="414336"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8C2570-408C-4B31-ABC4-05F3C3C75E10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7575306" y="6888050"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BF5433-01C5-4BB2-B91E-85AE25E514EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915149" y="6053880"/>
+          <a:ext cx="788745" cy="834170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9CBE4A-1BA0-4AE4-8FB7-0644A6092A59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="34" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6905624" y="7164275"/>
+          <a:ext cx="798270" cy="813655"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B571AE6A-6B71-48F4-92FD-BDBE6D525290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924674" y="7025430"/>
+          <a:ext cx="650632" cy="733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DA190C-C577-4CEC-88D5-E8CF7DE1089E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="6"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7832481" y="7023232"/>
+          <a:ext cx="708512" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962EFC00-DDBD-4696-A66C-1E9C6C199B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358802" y="7023232"/>
+          <a:ext cx="548054" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA589630-534C-4B0F-B616-21655C6CAA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12726130" y="7018836"/>
+          <a:ext cx="689465" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235284</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238033</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E74D800-B954-436F-8106-50EF1E94CE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11772440" y="5986647"/>
+          <a:ext cx="2749" cy="663278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D795FF6-2DBB-471A-B8CA-42B079558C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13418525" y="2299189"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบวางบิล</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>13186</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -6821,7 +6802,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -7511,64 +7492,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ออกรายงาน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>รอออกรายงาน งบทดลอง</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8046,8 +7971,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1557338" y="1733552"/>
-          <a:ext cx="2476500" cy="2330695"/>
+          <a:off x="1562100" y="1733552"/>
+          <a:ext cx="2486025" cy="2330695"/>
           <a:chOff x="1557338" y="1019175"/>
           <a:chExt cx="2476500" cy="2330695"/>
         </a:xfrm>
@@ -8342,8 +8267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1566863" y="4925166"/>
-          <a:ext cx="2476500" cy="4200525"/>
+          <a:off x="1571625" y="4925166"/>
+          <a:ext cx="2486025" cy="4200525"/>
           <a:chOff x="352425" y="4163166"/>
           <a:chExt cx="2480163" cy="4200525"/>
         </a:xfrm>
@@ -11956,25 +11881,85 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13921</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>13921</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4397</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>146143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1078913" cy="352725"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rectangle 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F9B520-50B0-41CB-A6F9-C4119016F46D}"/>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9E976-B1D4-442F-A141-118979C80C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9861643" y="1023801"/>
+          <a:ext cx="1078913" cy="352725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1600" b="1"/>
+            <a:t>บัญชี</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8059</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796375F7-5C9B-4C9C-9F03-B9825F060B1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11982,14 +11967,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17082721" y="2871421"/>
-          <a:ext cx="1820740" cy="752476"/>
+          <a:off x="6104059" y="660161"/>
+          <a:ext cx="1819275" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12026,81 +12011,30 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ออกรายงาน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
+            <a:t>ออกใบเสร็จ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="95000"/>
                 <a:lumOff val="5000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RE)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -12117,20 +12051,77 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>300769</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8058</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79461AF-DA84-41EF-9F97-AB723D34AE8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5017843" y="586526"/>
+          <a:ext cx="636342" cy="1536089"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146143</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71301</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1078913" cy="352725"/>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142739</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3095625" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="TextBox 58">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A9E976-B1D4-442F-A141-118979C80C65}"/>
+        <xdr:cNvPr id="63" name="TextBox 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75BE0DF-FE2A-429B-98D5-285E3A2E28C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12138,8 +12129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9861643" y="1023801"/>
-          <a:ext cx="1078913" cy="352725"/>
+          <a:off x="9215437" y="333239"/>
+          <a:ext cx="3095625" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12168,34 +12159,38 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="th-TH" sz="1600" b="1"/>
-            <a:t>บัญชี</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Partner Chips  08/2018</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8059</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>88661</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>608134</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>79137</xdr:rowOff>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87006</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796375F7-5C9B-4C9C-9F03-B9825F060B1A}"/>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FE4BC1-1074-44A9-A319-30D332BEA103}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12203,14 +12198,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6104059" y="660161"/>
-          <a:ext cx="1819275" cy="752476"/>
+          <a:off x="696606" y="313224"/>
+          <a:ext cx="20625106" cy="9414181"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="00B050"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12230,6 +12228,265 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>153867</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>14656</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161191</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA2A3EA-D2C4-4124-8093-021F4EAC6D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1373067" y="4615960"/>
+          <a:ext cx="19367989" cy="4689231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75880</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758460" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A554B-E5EE-4A6B-859B-FBC0A0961DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9640400" y="4838380"/>
+          <a:ext cx="1758460" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Sale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> admin</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A66FDC-CC07-4D00-8314-A8364B5CC258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1365738" y="813288"/>
+          <a:ext cx="19367989" cy="3421674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B051F6-0F5E-4CD4-902D-C7CD86EA47C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095874" y="5677642"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
@@ -12242,12 +12499,158 @@
                   <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ออกใบเสร็จ</a:t>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ลูกค้า</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCD5ED-9A64-4E31-9ED4-02AA56411693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105399" y="6649192"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอเทส</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>แยกตามประเภท</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (TR)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -12258,22 +12661,100 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>172192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03488B-C599-48E5-980C-185248A376A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086349" y="7601692"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(RE)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>นำเข้าข้อมูล</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> (PR)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -12289,144 +12770,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>300769</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>83900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8058</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>148742</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79461AF-DA84-41EF-9F97-AB723D34AE8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="0"/>
-          <a:endCxn id="60" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="5017843" y="586526"/>
-          <a:ext cx="636342" cy="1536089"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142739</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3095625" cy="342786"/>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>169994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160470</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextBox 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75BE0DF-FE2A-429B-98D5-285E3A2E28C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9215437" y="333239"/>
-          <a:ext cx="3095625" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Partner Chips  08/2018</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>87006</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>11905</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6FE4BC1-1074-44A9-A319-30D332BEA103}"/>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57B0571-9730-4218-BB8F-939358DCEFF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12434,17 +12794,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696606" y="313224"/>
-          <a:ext cx="20625106" cy="9414181"/>
+          <a:off x="8540993" y="6646994"/>
+          <a:ext cx="1817809" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12464,11 +12821,54 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิด </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สั่งซื้อ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12476,23 +12876,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>153867</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>14656</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161191</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA2A3EA-D2C4-4124-8093-021F4EAC6D5B}"/>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1F1BF0-3797-4220-B0B9-5CE1F92CD22F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12500,17 +12900,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1373067" y="4615960"/>
-          <a:ext cx="19367989" cy="4689231"/>
+          <a:off x="10906856" y="6649925"/>
+          <a:ext cx="1819274" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12530,99 +12927,70 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับสินค้าเข้า</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดเอกสาร </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(RR/RF)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>496400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>75880</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1758460" cy="342786"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>546404</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>536879</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5A554B-E5EE-4A6B-859B-FBC0A0961DCC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9640400" y="4838380"/>
-          <a:ext cx="1758460" cy="342786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1"/>
-            <a:t>Sale</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t> admin</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A66FDC-CC07-4D00-8314-A8364B5CC258}"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ABC39C-B5C0-4F61-924C-C3BBDA45F851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12630,17 +12998,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1365738" y="813288"/>
-          <a:ext cx="19367989" cy="3421674"/>
+          <a:off x="10909604" y="5234171"/>
+          <a:ext cx="1819275" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12660,69 +13025,6 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>153142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>143618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B051F6-0F5E-4CD4-902D-C7CD86EA47C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095874" y="5677642"/>
-          <a:ext cx="1819275" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
@@ -12736,157 +13038,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>นำเข้าข้อมูล</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PO </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ลูกค้า</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>162668</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51FCD5ED-9A64-4E31-9ED4-02AA56411693}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105399" y="6649192"/>
-          <a:ext cx="1819275" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>นำเข้าข้อมูล</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ใบขอเทส</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>แยกตามประเภท</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> (TR)</a:t>
+            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -12903,23 +13055,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>172192</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>162668</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>8791</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>734</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03488B-C599-48E5-980C-185248A376A4}"/>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D243BA-ECB0-4F20-8611-4D6ADA76D319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12927,15 +13079,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086349" y="7601692"/>
-          <a:ext cx="1819275" cy="752476"/>
+          <a:off x="15866451" y="1153258"/>
+          <a:ext cx="1820740" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:srgbClr val="00B050"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12961,35 +13118,190 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1100" b="1">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>นำเข้าข้อมูล</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ใบขอสั่งซื้อสินค้า</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> (PR)</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>11722</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2197</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1856624-98E7-44C6-8033-7269D33E92BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15861322" y="2288931"/>
+          <a:ext cx="1819275" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>603004</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>156074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8B7C60-8D7A-404A-ACE2-23C5FDAA1189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13415595" y="6642598"/>
+          <a:ext cx="1817809" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>เปิดใบกำกับภาษี</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -13000,29 +13312,43 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(INV)</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6593</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>169994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>605202</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160470</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B57B0571-9730-4218-BB8F-939358DCEFF0}"/>
+        <xdr:cNvPr id="15" name="Oval 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C018758-E0A4-4529-8D01-0CEBA13F05E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13030,15 +13356,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8540993" y="6646994"/>
-          <a:ext cx="1817809" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
+          <a:off x="4543425" y="6889515"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13057,54 +13386,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เปิด </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PO</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สั่งซื้อ</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13112,23 +13398,250 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543656</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>534130</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E929DBA-88C8-4626-87B7-EB878B4744DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="7025429"/>
+          <a:ext cx="485775" cy="2199"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404814</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>31515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4324EC4-4871-45B0-A8D3-55B39CBF61C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4466127" y="6259767"/>
+          <a:ext cx="835635" cy="423861"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>169628</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF08F067-8E54-4C0C-9B72-FA0A39215F3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="6"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4800600" y="7025430"/>
+          <a:ext cx="304799" cy="2198"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>117240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0048E78-F3BB-47B0-8066-A48D53D32543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="4"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4473085" y="7364667"/>
+          <a:ext cx="812190" cy="414336"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1F1BF0-3797-4220-B0B9-5CE1F92CD22F}"/>
+        <xdr:cNvPr id="20" name="Oval 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F91563D-F517-484A-BDFA-3317AA68F691}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13136,15 +13649,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10906856" y="6649925"/>
-          <a:ext cx="1819274" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
+          <a:off x="7575306" y="6888050"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13163,46 +13679,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>รับสินค้าเข้า</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เปิดเอกสาร </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(RR/RF)</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13210,23 +13691,422 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>148380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E3C68-C9EF-4A3A-8639-209AA9CF4212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6915149" y="6053880"/>
+          <a:ext cx="788745" cy="834170"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388694</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD8A4A5-8E0D-45F4-A1C4-777ACF948CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="20" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6905624" y="7164275"/>
+          <a:ext cx="798270" cy="813655"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>167430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260106</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD8DD27-0C8B-437F-9439-68A12C5FAC86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924674" y="7025430"/>
+          <a:ext cx="650632" cy="733"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517281</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6593</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78BBE-1529-407E-AF5B-34F166C6739F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="6"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7832481" y="7023232"/>
+          <a:ext cx="708512" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605202</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>546404</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>90671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+      <xdr:colOff>543656</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E66FFC-E3DF-4556-9BE4-F02B8BE1EA54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10358802" y="7023232"/>
+          <a:ext cx="548054" cy="2931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536879</xdr:colOff>
+      <xdr:colOff>534130</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4395</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233229BF-5166-4E79-859C-8FD6A9A418BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12726130" y="7018836"/>
+          <a:ext cx="689465" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235284</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>81147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238033</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711C9E3-2978-4470-9244-1F5DB05664B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11817684" y="5986647"/>
+          <a:ext cx="2749" cy="663278"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>7325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>605934</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9ABC39C-B5C0-4F61-924C-C3BBDA45F851}"/>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F569074-EF93-441F-9B39-72A3F34450A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13234,8 +14114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10909604" y="5234171"/>
-          <a:ext cx="1819275" cy="752476"/>
+          <a:off x="13418525" y="2299189"/>
+          <a:ext cx="1817809" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13274,7 +14154,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>กรอกอัตราการแลกเปลี่ยน</a:t>
+            <a:t>ออกใบวางบิล</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -13291,23 +14171,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16851</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>13186</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>10258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>8791</xdr:colOff>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>734</xdr:rowOff>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D243BA-ECB0-4F20-8611-4D6ADA76D319}"/>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04305525-3BDA-4276-970A-BEF87E7356C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13315,8 +14195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15866451" y="1153258"/>
-          <a:ext cx="1820740" cy="752476"/>
+          <a:off x="13424386" y="1162051"/>
+          <a:ext cx="1819275" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13324,11 +14204,6 @@
         <a:solidFill>
           <a:srgbClr val="00B050"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13354,190 +14229,13 @@
           <a:r>
             <a:rPr lang="th-TH" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>รับชำระเงิน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>11722</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2931</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>2197</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>183907</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1856624-98E7-44C6-8033-7269D33E92BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15861322" y="2288931"/>
-          <a:ext cx="1819275" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>จ่ายชำระเงิน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ที่เกี่ยวข้องกับเดือน 9</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>4395</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>603004</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>156074</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8B7C60-8D7A-404A-ACE2-23C5FDAA1189}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13415595" y="6642598"/>
-          <a:ext cx="1817809" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>เปิดใบกำกับภาษี</a:t>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ออกใบเสร็จ</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -13548,43 +14246,259 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(INV)</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>117240</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>303700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165598</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BCB6A1-CD49-44A2-8572-72A5FB09F03A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14324500" y="3051665"/>
+          <a:ext cx="2930" cy="3590933"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>306630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>312491</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3933F4-EB56-4ACD-82A4-473B344278BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14327430" y="1914527"/>
+          <a:ext cx="5861" cy="384662"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3661</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16851</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC19242-4E0D-4D7B-BF0E-8D9F4601E8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15243661" y="1529496"/>
+          <a:ext cx="622790" cy="8793"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>234825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>183907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>311027</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72DE8C-82AC-4A46-B5F5-688C0AA45A63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="12113229" y="2745403"/>
+          <a:ext cx="4360994" cy="4953002"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5242"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:headEnd type="oval" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15386</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Oval 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C018758-E0A4-4529-8D01-0CEBA13F05E6}"/>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE44B3A0-7800-4561-940C-B9DF68740018}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13592,18 +14506,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543425" y="6889515"/>
-          <a:ext cx="257175" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
+          <a:off x="18303386" y="1143733"/>
+          <a:ext cx="1820740" cy="752476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13622,761 +14533,6 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169628</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E929DBA-88C8-4626-87B7-EB878B4744DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="15" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4057650" y="7025429"/>
-          <a:ext cx="485775" cy="2199"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404814</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>31515</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4324EC4-4871-45B0-A8D3-55B39CBF61C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="4466127" y="6259767"/>
-          <a:ext cx="835635" cy="423861"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169628</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF08F067-8E54-4C0C-9B72-FA0A39215F3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="6"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="7025430"/>
-          <a:ext cx="304799" cy="2198"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>117240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0048E78-F3BB-47B0-8066-A48D53D32543}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="4"/>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4473085" y="7364667"/>
-          <a:ext cx="812190" cy="414336"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260106</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517281</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Oval 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F91563D-F517-484A-BDFA-3317AA68F691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7575306" y="6888050"/>
-          <a:ext cx="257175" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>148380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388694</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66E3C68-C9EF-4A3A-8639-209AA9CF4212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="20" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915149" y="6053880"/>
-          <a:ext cx="788745" cy="834170"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>115775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>388694</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD8A4A5-8E0D-45F4-A1C4-777ACF948CEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="20" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6905624" y="7164275"/>
-          <a:ext cx="798270" cy="813655"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>167430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>260106</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD8DD27-0C8B-437F-9439-68A12C5FAC86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6924674" y="7025430"/>
-          <a:ext cx="650632" cy="733"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517281</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6593</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B78BBE-1529-407E-AF5B-34F166C6739F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="6"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7832481" y="7023232"/>
-          <a:ext cx="708512" cy="2931"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>605202</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>165232</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543656</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E66FFC-E3DF-4556-9BE4-F02B8BE1EA54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10358802" y="7023232"/>
-          <a:ext cx="548054" cy="2931"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>534130</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>4395</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>168163</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233229BF-5166-4E79-859C-8FD6A9A418BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="14" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12726130" y="7018836"/>
-          <a:ext cx="689465" cy="7327"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>235284</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>81147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238033</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6711C9E3-2978-4470-9244-1F5DB05664B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="11" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11817684" y="5986647"/>
-          <a:ext cx="2749" cy="663278"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7325</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>605934</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3665</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F569074-EF93-441F-9B39-72A3F34450A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13418525" y="2299189"/>
-          <a:ext cx="1817809" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
@@ -14389,8 +14545,41 @@
                   <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ออกใบวางบิล</a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>รับชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันรับเงิน</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -14407,23 +14596,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>13186</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3661</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>13920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04305525-3BDA-4276-970A-BEF87E7356C1}"/>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E3BCFA-05B5-4B6B-8F4D-6110698BEB98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14431,8 +14620,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13424386" y="1162051"/>
-          <a:ext cx="1819275" cy="752476"/>
+          <a:off x="18301920" y="2285267"/>
+          <a:ext cx="1820740" cy="752476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14470,8 +14659,41 @@
                   <a:lumOff val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ออกใบเสร็จ</a:t>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>จ่ายชำระเงิน</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ใน</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="th-TH" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>สมุดรายวันจ่ายเงิน</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1">
             <a:solidFill>
@@ -14488,464 +14710,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>303700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>306630</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165598</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BCB6A1-CD49-44A2-8572-72A5FB09F03A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-          <a:endCxn id="28" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14324500" y="3051665"/>
-          <a:ext cx="2930" cy="3590933"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>306630</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>312491</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13189</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3933F4-EB56-4ACD-82A4-473B344278BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="0"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14327430" y="1914527"/>
-          <a:ext cx="5861" cy="384662"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>3661</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>5496</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16851</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14289</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC19242-4E0D-4D7B-BF0E-8D9F4601E8BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15243661" y="1529496"/>
-          <a:ext cx="622790" cy="8793"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>234825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>183907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>311027</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>163401</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B72DE8C-82AC-4A46-B5F5-688C0AA45A63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="12113229" y="2745403"/>
-          <a:ext cx="4360994" cy="4953002"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5242"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:headEnd type="oval" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15386</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181709</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE44B3A0-7800-4561-940C-B9DF68740018}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18303386" y="1143733"/>
-          <a:ext cx="1820740" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>รับชำระเงิน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ใน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สมุดรายวันรับเงิน</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>189767</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>5860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180243</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E3BCFA-05B5-4B6B-8F4D-6110698BEB98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18301920" y="2285267"/>
-          <a:ext cx="1820740" cy="752476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B050"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>จ่ายชำระเงิน</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ใน</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>สมุดรายวันจ่ายเงิน</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>8791</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -15130,62 +14894,6 @@
             </a:rPr>
             <a:t>ออกรายงาน</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="th-TH" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>กำลังดำเนินการปรับแก้ตามแบบฟอร์ม</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="95000"/>
-                  <a:lumOff val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15673,7 +15381,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15687,8 +15395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22623543-0CDF-4A60-ADC8-66FD6E47BC31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ30" sqref="AJ30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15702,7 +15410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502C6A81-68D6-48A9-8DA0-0479F796D196}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
@@ -15717,8 +15425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B18B49-BE50-429E-9BAE-7FA41E00D1F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ34" sqref="AJ34"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
